--- a/public/SiswaData/siswa.xlsx
+++ b/public/SiswaData/siswa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2847FD8-20B8-4C52-BE75-35A5D4BBDAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC66B830-043D-48D6-A963-D7274E0CC677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4E8C339C-ADC0-43A0-BB3A-D527D59F4344}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7785" xr2:uid="{4E8C339C-ADC0-43A0-BB3A-D527D59F4344}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Laki-laki</t>
   </si>
@@ -42,28 +42,7 @@
     <t>jombang</t>
   </si>
   <si>
-    <t>arya</t>
-  </si>
-  <si>
-    <t>uiiiuu</t>
-  </si>
-  <si>
-    <t>rendy</t>
-  </si>
-  <si>
-    <t>Perempuan</t>
-  </si>
-  <si>
-    <t>Ponorogo</t>
-  </si>
-  <si>
-    <t>Magetan</t>
-  </si>
-  <si>
-    <t>Madiun</t>
-  </si>
-  <si>
-    <t>apiopp</t>
+    <t>roy</t>
   </si>
 </sst>
 </file>
@@ -99,10 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +398,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,13 +408,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>1234</v>
+        <v>999</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -447,78 +425,18 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2">
-        <v>37728</v>
+      <c r="G1" s="1">
+        <v>37366</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2343</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1">
-        <v>37337</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>8564</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1">
-        <v>37666</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1246</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1">
-        <v>37764</v>
-      </c>
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
